--- a/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
@@ -871,7 +871,7 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R3" t="n">
         <v>2.7</v>
@@ -1020,10 +1020,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="S4" t="n">
         <v>2.4</v>
@@ -1053,7 +1053,7 @@
         <v>2.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1145,7 +1145,7 @@
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1157,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1169,10 +1169,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="S5" t="n">
         <v>2.6</v>
@@ -1181,10 +1181,10 @@
         <v>1.48</v>
       </c>
       <c r="U5" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1202,7 +1202,7 @@
         <v>2.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AC5" t="n">
         <v>6.5</v>
@@ -1211,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
         <v>23</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AB6" t="n">
         <v>2.2</v>
@@ -1461,10 +1461,10 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1570,22 +1570,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1628,13 +1628,13 @@
         <v>2.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF8" t="n">
         <v>23</v>
@@ -1667,10 +1667,10 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>21</v>
@@ -1711,52 +1711,52 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="X9" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AA9" t="n">
         <v>1.62</v>
@@ -1765,34 +1765,34 @@
         <v>2.02</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
         <v>12.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>400</v>
@@ -1801,19 +1801,19 @@
         <v>8.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP9" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -1993,46 +1993,46 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S11" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T11" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2043,28 +2043,28 @@
         <v>1.14</v>
       </c>
       <c r="Y11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB11" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1.62</v>
       </c>
       <c r="AC11" t="n">
         <v>5.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
@@ -2073,7 +2073,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
@@ -2091,7 +2091,7 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>15</v>
@@ -2423,45 +2423,115 @@
           <t>Shamal</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.75</v>
+      </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.52</v>
+      </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2638,7 +2708,7 @@
         <v>5.25</v>
       </c>
       <c r="I16" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="J16" t="n">
         <v>7.5</v>
@@ -2647,7 +2717,7 @@
         <v>2.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -2777,22 +2847,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2809,18 +2879,18 @@
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y17" t="n">
         <v>1.36</v>
@@ -2847,7 +2917,7 @@
         <v>17</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>26</v>
@@ -2924,7 +2994,7 @@
         <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="J18" t="n">
         <v>8.5</v>
@@ -2933,7 +3003,7 @@
         <v>2.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
         <v>21</v>
@@ -3059,16 +3129,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="H19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="J19" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="K19" t="n">
         <v>2.95</v>
@@ -3082,15 +3152,15 @@
         <v>1.09</v>
       </c>
       <c r="P19" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -3098,7 +3168,7 @@
         <v>1.72</v>
       </c>
       <c r="X19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="n">
         <v>1.2</v>
@@ -3107,22 +3177,22 @@
         <v>4.05</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AC19" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD19" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AE19" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF19" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AG19" t="n">
         <v>175</v>
@@ -3131,13 +3201,13 @@
         <v>100</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>80</v>
@@ -3149,13 +3219,13 @@
         <v>12</v>
       </c>
       <c r="AO19" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AP19" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AR19" t="n">
         <v>9.75</v>
@@ -3196,19 +3266,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="I20" t="n">
         <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="K20" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="L20" t="n">
         <v>1.98</v>
@@ -3220,10 +3290,10 @@
         <v>10</v>
       </c>
       <c r="O20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
@@ -3231,21 +3301,21 @@
         <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AA20" t="n">
         <v>1.5</v>
@@ -3254,19 +3324,19 @@
         <v>2.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="n">
         <v>32</v>
@@ -3275,7 +3345,7 @@
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK20" t="n">
         <v>13.5</v>
@@ -3287,16 +3357,16 @@
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP20" t="n">
         <v>8.5</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR20" t="n">
         <v>10.75</v>
@@ -3337,22 +3407,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="K21" t="n">
         <v>2.42</v>
       </c>
       <c r="L21" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3383,16 +3453,16 @@
         <v>1.57</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AC21" t="n">
         <v>9.5</v>
@@ -3410,13 +3480,13 @@
         <v>11.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>9.25</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK21" t="n">
         <v>13.5</v>
@@ -3425,19 +3495,19 @@
         <v>45</v>
       </c>
       <c r="AM21" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AP21" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR21" t="n">
         <v>37</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AS21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,10 +1020,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="S4" t="n">
         <v>2.4</v>
@@ -1053,7 +1053,7 @@
         <v>2.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1148,7 +1148,7 @@
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1157,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1169,10 +1169,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>2.6</v>
@@ -1181,10 +1181,10 @@
         <v>1.48</v>
       </c>
       <c r="U5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1202,13 +1202,13 @@
         <v>2.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>10</v>
@@ -1232,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
         <v>101</v>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AB6" t="n">
         <v>2.2</v>
@@ -1447,10 +1447,10 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1461,18 +1461,18 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y7" t="n">
         <v>1.36</v>
@@ -1588,32 +1588,32 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y8" t="n">
         <v>1.36</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H11" t="n">
         <v>2.9</v>
@@ -2109,7 +2109,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tvKr2jyI</t>
+          <t>GnXuxw3S</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2119,138 +2119,138 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Qatar SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>General Caballero JLM</t>
+          <t>Shamal</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3.15</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="I12" t="n">
-        <v>4.33</v>
+        <v>2.02</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>3.45</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>2.37</v>
       </c>
       <c r="L12" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>2.75</v>
+        <v>4.85</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>2.35</v>
+        <v>1.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>2.55</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="n">
-        <v>4.33</v>
+        <v>2.1</v>
       </c>
       <c r="X12" t="n">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.73</v>
+        <v>2.65</v>
       </c>
       <c r="AC12" t="n">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>22</v>
       </c>
       <c r="AE12" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI12" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>7</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>351</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>15</v>
+        <v>8.75</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
-        <v>41</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>l4Nj0U5U</t>
+          <t>0K8CWGQk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2260,142 +2260,134 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>QATAR - QSL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Al-Sadd</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="J13" t="n">
-        <v>4.33</v>
+        <v>4.55</v>
       </c>
       <c r="K13" t="n">
-        <v>1.91</v>
+        <v>2.67</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6.5</v>
-      </c>
+        <v>1.93</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="O13" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.85</v>
-      </c>
+        <v>6.2</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.48</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="n">
-        <v>5</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.2</v>
+        <v>1.38</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.62</v>
+        <v>2.82</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="AD13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AE13" t="n">
         <v>17</v>
       </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AG13" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AH13" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="AI13" t="n">
-        <v>6.5</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6</v>
+        <v>10.75</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP13" t="n">
         <v>9</v>
       </c>
-      <c r="AP13" t="n">
-        <v>10</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>21</v>
+        <v>10.75</v>
       </c>
       <c r="AS13" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GnXuxw3S</t>
+          <t>rR2iPoeC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2405,138 +2397,142 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Qatar SC</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Shamal</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>5.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.07</v>
+        <v>1.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2.55</v>
+        <v>1.73</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+        <v>2.3</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="X14" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.65</v>
+        <v>1.73</v>
       </c>
       <c r="AC14" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AD14" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>11.25</v>
+        <v>26</v>
       </c>
       <c r="AF14" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>10.75</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR14" t="n">
         <v>12</v>
       </c>
-      <c r="AO14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>14</v>
-      </c>
       <c r="AS14" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>0K8CWGQk</t>
+          <t>UetYyPvI</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2546,134 +2542,138 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>QATAR - QSL</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Al Riyadh</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Al-Sadd</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.57</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>4.45</v>
+        <v>2.6</v>
       </c>
       <c r="K15" t="n">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.5</v>
+      </c>
       <c r="O15" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>6.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.88</v>
       </c>
       <c r="T15" t="n">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="X15" t="n">
-        <v>1.98</v>
+        <v>1.33</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.15</v>
+        <v>2.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.85</v>
+        <v>2</v>
       </c>
       <c r="AC15" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>40</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AF15" t="n">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="AK15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN15" t="n">
         <v>12</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AO15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
         <v>29</v>
       </c>
-      <c r="AM15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AS15" t="n">
-        <v>14.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>rR2iPoeC</t>
+          <t>GhGbNPPO</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2693,69 +2693,65 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
+          <t>Al Raed</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="J16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>21</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>1.03</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="X16" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AA16" t="n">
         <v>2</v>
@@ -2764,10 +2760,10 @@
         <v>1.73</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
@@ -2782,34 +2778,34 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AN16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>7.5</v>
       </c>
-      <c r="AO16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>8</v>
-      </c>
       <c r="AR16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS16" t="n">
         <v>26</v>
@@ -2818,7 +2814,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UetYyPvI</t>
+          <t>OxK0SpHs</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2828,138 +2824,134 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>10.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>3.5</v>
+        <v>1.22</v>
       </c>
       <c r="J17" t="n">
-        <v>2.62</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.87</v>
       </c>
       <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>8.5</v>
-      </c>
+        <v>1.57</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>5.8</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>1.93</v>
+        <v>3.05</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="X17" t="n">
-        <v>1.33</v>
+        <v>1.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.36</v>
+        <v>1.21</v>
       </c>
       <c r="Z17" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="AB17" t="n">
         <v>2</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="AE17" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>8.25</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>8.5</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>9.75</v>
       </c>
       <c r="AS17" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GhGbNPPO</t>
+          <t>4hwUX6gK</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2969,138 +2961,138 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Raed</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>9</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>1.19</v>
+        <v>1.45</v>
       </c>
       <c r="J18" t="n">
-        <v>8.5</v>
+        <v>5.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="M18" t="n">
-        <v>21</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>1.03</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P18" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="X18" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="Z18" t="n">
         <v>3.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>2</v>
+        <v>1.52</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.73</v>
+        <v>2.37</v>
       </c>
       <c r="AC18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD18" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="AK18" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AO18" t="n">
         <v>9.5</v>
       </c>
-      <c r="AO18" t="n">
-        <v>7</v>
-      </c>
       <c r="AP18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7.5</v>
+        <v>11.75</v>
       </c>
       <c r="AR18" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OxK0SpHs</t>
+          <t>djI8QOof</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3110,7 +3102,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3120,124 +3112,128 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Wasl</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Ittihad Kalba</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13.5</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>6.4</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>1.18</v>
+        <v>4.5</v>
       </c>
       <c r="J19" t="n">
-        <v>9.5</v>
+        <v>2.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.95</v>
+        <v>2.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.25</v>
+      </c>
       <c r="O19" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="T19" t="n">
-        <v>3.2</v>
+        <v>2.35</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="n">
-        <v>1.72</v>
+        <v>2.27</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="Z19" t="n">
-        <v>4.05</v>
+        <v>3.35</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="AC19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL19" t="n">
         <v>50</v>
       </c>
-      <c r="AD19" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ19" t="n">
+      <c r="AM19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP19" t="n">
         <v>14.5</v>
       </c>
-      <c r="AK19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>10</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>8.25</v>
+        <v>75</v>
       </c>
       <c r="AR19" t="n">
-        <v>9.75</v>
+        <v>37</v>
       </c>
       <c r="AS19" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4hwUX6gK</t>
+          <t>8jTKFKQP</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3247,138 +3243,134 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Universidad Central</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
-        <v>4.45</v>
+        <v>2.75</v>
       </c>
       <c r="I20" t="n">
-        <v>1.53</v>
+        <v>2.7</v>
       </c>
       <c r="J20" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>2.57</v>
+        <v>1.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.49</v>
       </c>
       <c r="P20" t="n">
-        <v>5.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>1.4</v>
+        <v>2.47</v>
       </c>
       <c r="T20" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="X20" t="n">
-        <v>1.72</v>
+        <v>1.17</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.24</v>
+        <v>1.61</v>
       </c>
       <c r="Z20" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="AB20" t="n">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="AC20" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>37</v>
+        <v>8.4</v>
       </c>
       <c r="AE20" t="n">
-        <v>16.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AF20" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH20" t="n">
         <v>40</v>
       </c>
-      <c r="AH20" t="n">
-        <v>32</v>
-      </c>
       <c r="AI20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO20" t="n">
         <v>10</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AP20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="n">
-        <v>10.75</v>
+        <v>25</v>
       </c>
       <c r="AS20" t="n">
-        <v>17.5</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>djI8QOof</t>
+          <t>0l8a8xJa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3388,275 +3380,129 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Al Wasl</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ittihad Kalba</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>2.67</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
-        <v>2.07</v>
+        <v>3.3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="L21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9.25</v>
-      </c>
+        <v>3.45</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>4.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>2.27</v>
       </c>
       <c r="T21" t="n">
-        <v>2.35</v>
+        <v>1.5</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z21" t="n">
         <v>2.27</v>
       </c>
-      <c r="X21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>3.4</v>
-      </c>
       <c r="AA21" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="AB21" t="n">
-        <v>2.22</v>
+        <v>1.72</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>6.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.25</v>
+        <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="AF21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>900</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AO21" t="n">
         <v>13</v>
       </c>
-      <c r="AG21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>32</v>
-      </c>
       <c r="AP21" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AQ21" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="AR21" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="AS21" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>8jTKFKQP</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>30/01/2025</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>La Guaira</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Universidad Central</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>0l8a8xJa</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>30/01/2025</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS21"/>
+  <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
@@ -701,10 +701,10 @@
         <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
@@ -722,28 +722,28 @@
         <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="U2" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y2" t="n">
         <v>1.53</v>
@@ -788,7 +788,7 @@
         <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AN2" t="n">
         <v>7</v>
@@ -800,7 +800,7 @@
         <v>11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>26</v>
@@ -841,16 +841,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.25</v>
@@ -859,10 +859,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -877,10 +877,10 @@
         <v>2.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
         <v>2.65</v>
@@ -889,10 +889,10 @@
         <v>1.48</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y3" t="n">
         <v>1.4</v>
@@ -925,7 +925,7 @@
         <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ3" t="n">
         <v>7</v>
@@ -943,16 +943,16 @@
         <v>15</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>67</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
         <v>51</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -999,64 +999,64 @@
         <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="U4" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
         <v>8.5</v>
@@ -1068,10 +1068,10 @@
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>7.5</v>
@@ -1139,19 +1139,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -1163,22 +1163,22 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="U5" t="n">
         <v>4.5</v>
@@ -1193,16 +1193,16 @@
         <v>1.14</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC5" t="n">
         <v>6</v>
@@ -1250,7 +1250,7 @@
         <v>34</v>
       </c>
       <c r="AR5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS5" t="n">
         <v>41</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1312,32 +1312,32 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="X6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AA6" t="n">
         <v>1.62</v>
@@ -1349,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1358,13 +1358,13 @@
         <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>6.5</v>
@@ -1379,19 +1379,19 @@
         <v>151</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>10</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS6" t="n">
         <v>26</v>
@@ -1429,22 +1429,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1461,10 +1461,10 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1481,22 +1481,22 @@
         <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AC7" t="n">
         <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>8.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1505,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL7" t="n">
         <v>41</v>
@@ -1520,19 +1520,19 @@
         <v>201</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
         <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS7" t="n">
         <v>34</v>
@@ -1570,28 +1570,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1602,33 +1602,33 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
@@ -1637,16 +1637,16 @@
         <v>10</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
         <v>6.5</v>
@@ -1658,13 +1658,13 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>10</v>
@@ -1714,13 +1714,13 @@
         <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.02</v>
@@ -1731,10 +1731,10 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
@@ -1742,21 +1742,21 @@
         <v>1.82</v>
       </c>
       <c r="T9" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="X9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="AA9" t="n">
         <v>1.62</v>
@@ -1765,7 +1765,7 @@
         <v>2.02</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD9" t="n">
         <v>17</v>
@@ -1777,40 +1777,40 @@
         <v>40</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AK9" t="n">
         <v>12.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
         <v>400</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP9" t="n">
         <v>8.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
         <v>26</v>
@@ -1848,87 +1848,87 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AC10" t="n">
         <v>5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
@@ -1943,13 +1943,13 @@
         <v>101</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>51</v>
@@ -1993,78 +1993,78 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="R11" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="S11" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
@@ -2073,37 +2073,37 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM11" t="n">
         <v>101</v>
       </c>
       <c r="AN11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
       </c>
       <c r="AR11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS11" t="n">
         <v>41</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -2138,22 +2138,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.75</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L12" t="n">
         <v>2.37</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2165,7 +2165,7 @@
         <v>1.15</v>
       </c>
       <c r="P12" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
@@ -2190,28 +2190,28 @@
         <v>3.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>9.5</v>
@@ -2220,31 +2220,31 @@
         <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AO12" t="n">
         <v>12.5</v>
       </c>
-      <c r="AO12" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AP12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="H13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J13" t="n">
         <v>4.5</v>
       </c>
-      <c r="I13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4.55</v>
-      </c>
       <c r="K13" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -2324,16 +2324,16 @@
         <v>1.19</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="AC13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD13" t="n">
         <v>45</v>
@@ -2342,46 +2342,46 @@
         <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG13" t="n">
         <v>37</v>
       </c>
       <c r="AH13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
         <v>32</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM13" t="n">
         <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AR13" t="n">
         <v>10.75</v>
       </c>
       <c r="AS13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -2416,114 +2416,114 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="I14" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="J14" t="n">
         <v>7.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V14" t="n">
         <v>2</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AB14" t="n">
         <v>1.8</v>
       </c>
-      <c r="W14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="X14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AC14" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF14" t="n">
         <v>101</v>
       </c>
       <c r="AG14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH14" t="n">
         <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
         <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>8</v>
       </c>
       <c r="AR14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS14" t="n">
         <v>26</v>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
@@ -2570,10 +2570,10 @@
         <v>3.7</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>4</v>
@@ -2593,24 +2593,24 @@
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="X15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="n">
         <v>1.73</v>
@@ -2622,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>9</v>
@@ -2637,7 +2637,7 @@
         <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>6.5</v>
@@ -2705,62 +2705,62 @@
         <v>9</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="J16" t="n">
         <v>8.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L16" t="n">
         <v>1.57</v>
       </c>
       <c r="M16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="O16" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P16" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="X16" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AD16" t="n">
         <v>51</v>
@@ -2778,37 +2778,37 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM16" t="n">
         <v>700</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP16" t="n">
         <v>10</v>
       </c>
       <c r="AQ16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AR16" t="n">
         <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -2843,109 +2843,109 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>10.75</v>
+        <v>7.9</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>4.85</v>
       </c>
       <c r="I17" t="n">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="L17" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="X17" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="Z17" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AC17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AD17" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AH17" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>10.75</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="AN17" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AR17" t="n">
         <v>9.75</v>
       </c>
       <c r="AS17" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="18">
@@ -2980,22 +2980,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>4.85</v>
       </c>
       <c r="I18" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="J18" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>2.57</v>
+        <v>2.82</v>
       </c>
       <c r="L18" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="M18" t="n">
         <v>1.02</v>
@@ -3004,89 +3004,89 @@
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="P18" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="n">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="X18" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="Z18" t="n">
-        <v>3.75</v>
+        <v>4.35</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="AC18" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AD18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>120</v>
       </c>
       <c r="AG18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AH18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL18" t="n">
         <v>37</v>
       </c>
-      <c r="AI18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AM18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AN18" t="n">
         <v>13.5</v>
       </c>
-      <c r="AL18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>10.25</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -3121,28 +3121,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="K19" t="n">
         <v>2.45</v>
       </c>
       <c r="L19" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3173,67 +3173,67 @@
         <v>3.35</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AJ19" t="n">
         <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AN19" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AP19" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AR19" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AS19" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8jTKFKQP</t>
+          <t>0l8a8xJa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3253,254 +3253,121 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Universidad Central</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.92</v>
       </c>
       <c r="H20" t="n">
         <v>2.75</v>
       </c>
       <c r="I20" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="L20" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+        <v>3.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.4</v>
+      </c>
       <c r="O20" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="T20" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="X20" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AH20" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="n">
-        <v>5.4</v>
+        <v>6.3</v>
       </c>
       <c r="AJ20" t="n">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AM20" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
         <v>10</v>
       </c>
-      <c r="AP20" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS20" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>0l8a8xJa</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>30/01/2025</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Dep. Tachira</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>900</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AS21" t="n">
         <v>40</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>3.9</v>
@@ -859,10 +859,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -877,10 +877,10 @@
         <v>2.7</v>
       </c>
       <c r="S3" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
         <v>2.65</v>
@@ -889,10 +889,10 @@
         <v>1.48</v>
       </c>
       <c r="W3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y3" t="n">
         <v>1.4</v>
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
@@ -999,10 +999,10 @@
         <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>4.75</v>
@@ -1029,7 +1029,7 @@
         <v>2.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
         <v>4.1</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
@@ -1151,7 +1151,7 @@
         <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -1178,7 +1178,7 @@
         <v>2.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U5" t="n">
         <v>4.5</v>
@@ -1714,43 +1714,43 @@
         <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L9" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="X9" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="Y9" t="n">
         <v>1.42</v>
@@ -1759,16 +1759,16 @@
         <v>2.47</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
         <v>10.5</v>
@@ -1777,16 +1777,16 @@
         <v>40</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
         <v>12.5</v>
@@ -1801,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AP9" t="n">
         <v>8.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -1866,13 +1866,13 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
         <v>2.75</v>
@@ -1884,18 +1884,18 @@
         <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="X10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Y10" t="n">
         <v>1.5</v>
@@ -1993,40 +1993,40 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
         <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S11" t="n">
         <v>2.5</v>
@@ -2040,31 +2040,31 @@
         <v>5</v>
       </c>
       <c r="X11" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AC11" t="n">
         <v>6</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
@@ -2073,7 +2073,7 @@
         <v>41</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>6</v>
@@ -2088,10 +2088,10 @@
         <v>101</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>13</v>
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I13" t="n">
         <v>1.52</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="K13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="L13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
@@ -2302,12 +2302,12 @@
         <v>1.09</v>
       </c>
       <c r="P13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T13" t="n">
         <v>3.25</v>
@@ -2318,31 +2318,31 @@
         <v>1.72</v>
       </c>
       <c r="X13" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AD13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG13" t="n">
         <v>37</v>
@@ -2360,7 +2360,7 @@
         <v>12.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
         <v>120</v>
@@ -2375,10 +2375,10 @@
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AR13" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
@@ -2561,13 +2561,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J15" t="n">
         <v>2.5</v>
@@ -2596,7 +2596,7 @@
         <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -2622,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
         <v>9</v>
@@ -2640,10 +2640,10 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>41</v>
@@ -2655,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -2702,56 +2702,56 @@
         </is>
       </c>
       <c r="G16" t="n">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J16" t="n">
         <v>9</v>
       </c>
-      <c r="H16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8.5</v>
-      </c>
       <c r="K16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="M16" t="n">
-        <v>23</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>1.02</v>
+        <v>29</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="Z16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AA16" t="n">
         <v>1.83</v>
@@ -2760,16 +2760,16 @@
         <v>1.83</v>
       </c>
       <c r="AC16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD16" t="n">
         <v>51</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="n">
         <v>51</v>
@@ -2778,10 +2778,10 @@
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
@@ -2790,16 +2790,16 @@
         <v>51</v>
       </c>
       <c r="AM16" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AN16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
         <v>11</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>10</v>
       </c>
       <c r="AQ16" t="n">
         <v>8</v>
@@ -3121,22 +3121,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="L19" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3173,28 +3173,28 @@
         <v>3.35</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AC19" t="n">
         <v>9.25</v>
       </c>
       <c r="AD19" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AE19" t="n">
         <v>8</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI19" t="n">
         <v>9</v>
@@ -3203,31 +3203,31 @@
         <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AN19" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
         <v>35</v>
       </c>
       <c r="AP19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AR19" t="n">
         <v>45</v>
       </c>
       <c r="AS19" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">

--- a/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -716,22 +716,22 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R2" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
         <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U2" t="n">
         <v>4.1</v>
@@ -746,10 +746,10 @@
         <v>1.17</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AA2" t="n">
         <v>2.05</v>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -770,7 +770,7 @@
         <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH2" t="n">
         <v>41</v>
@@ -782,28 +782,28 @@
         <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AN2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>11</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
         <v>41</v>
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -871,10 +871,10 @@
         <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R3" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.98</v>
@@ -883,10 +883,10 @@
         <v>1.88</v>
       </c>
       <c r="U3" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W3" t="n">
         <v>3.4</v>
@@ -910,19 +910,19 @@
         <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>8.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>10</v>
@@ -946,16 +946,16 @@
         <v>29</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>3.6</v>
@@ -1002,46 +1002,46 @@
         <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>4.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="Y4" t="n">
         <v>1.57</v>
@@ -1062,10 +1062,10 @@
         <v>8.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
@@ -1074,7 +1074,7 @@
         <v>41</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>6.5</v>
@@ -1089,7 +1089,7 @@
         <v>501</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
@@ -1101,10 +1101,10 @@
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1711,22 +1711,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -1739,7 +1739,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T9" t="n">
         <v>1.75</v>
@@ -1771,13 +1771,13 @@
         <v>16.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF9" t="n">
         <v>40</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
@@ -1786,31 +1786,31 @@
         <v>9.25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AK9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AO9" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AP9" t="n">
         <v>8.75</v>
       </c>
       <c r="AQ9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AS9" t="n">
         <v>27</v>
@@ -1848,60 +1848,60 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S10" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="T10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="X10" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA10" t="n">
         <v>2.2</v>
@@ -1913,25 +1913,25 @@
         <v>5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -1943,22 +1943,22 @@
         <v>101</v>
       </c>
       <c r="AN10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1993,13 +1993,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -2011,10 +2011,10 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2029,10 +2029,10 @@
         <v>1.88</v>
       </c>
       <c r="S11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -2049,10 +2049,10 @@
         <v>2.25</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AC11" t="n">
         <v>6</v>
@@ -2067,7 +2067,7 @@
         <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>41</v>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" t="n">
         <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -2723,7 +2723,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
         <v>1.08</v>
@@ -2734,10 +2734,10 @@
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -2754,10 +2754,10 @@
         <v>4.33</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AC16" t="n">
         <v>34</v>
@@ -2769,46 +2769,46 @@
         <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AH16" t="n">
         <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP16" t="n">
         <v>11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AR16" t="n">
         <v>11</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">

--- a/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -710,10 +710,10 @@
         <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -758,16 +758,16 @@
         <v>1.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>29</v>
@@ -776,7 +776,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>6</v>
@@ -797,10 +797,10 @@
         <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR2" t="n">
         <v>23</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
         <v>5.5</v>
@@ -853,7 +853,7 @@
         <v>2.2</v>
       </c>
       <c r="K3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -865,49 +865,49 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="R3" t="n">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="S3" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="V3" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
         <v>7.5</v>
@@ -925,10 +925,10 @@
         <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -993,10 +993,10 @@
         <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1032,10 +1032,10 @@
         <v>1.48</v>
       </c>
       <c r="U4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="V4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W4" t="n">
         <v>5.5</v>
@@ -1044,16 +1044,16 @@
         <v>1.14</v>
       </c>
       <c r="Y4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AB4" t="n">
         <v>1.57</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.62</v>
       </c>
       <c r="AC4" t="n">
         <v>5.5</v>
@@ -1996,7 +1996,7 @@
         <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="I11" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
@@ -871,10 +871,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R3" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.85</v>
@@ -883,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
         <v>3</v>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1005,7 +1005,7 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1032,7 +1032,7 @@
         <v>1.48</v>
       </c>
       <c r="U4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="V4" t="n">
         <v>1.21</v>
@@ -1059,13 +1059,13 @@
         <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>21</v>
@@ -1095,7 +1095,7 @@
         <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
@@ -1139,58 +1139,58 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="T5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y5" t="n">
         <v>1.62</v>
@@ -1211,25 +1211,25 @@
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF5" t="n">
         <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>81</v>
@@ -1241,10 +1241,10 @@
         <v>7</v>
       </c>
       <c r="AO5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP5" t="n">
         <v>13</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>34</v>
@@ -1253,7 +1253,7 @@
         <v>34</v>
       </c>
       <c r="AS5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">

--- a/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-30.xlsx
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1008,16 +1008,16 @@
         <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>2.03</v>
@@ -1026,22 +1026,22 @@
         <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="U4" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y4" t="n">
         <v>1.62</v>
@@ -1050,19 +1050,19 @@
         <v>2.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD4" t="n">
         <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>17</v>
@@ -1080,10 +1080,10 @@
         <v>6.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="n">
         <v>501</v>
@@ -1092,7 +1092,7 @@
         <v>7.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>15</v>
@@ -1139,7 +1139,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1148,25 +1148,25 @@
         <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
@@ -1175,22 +1175,22 @@
         <v>1.8</v>
       </c>
       <c r="S5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U5" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Y5" t="n">
         <v>1.62</v>
@@ -1211,13 +1211,13 @@
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF5" t="n">
         <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1229,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>81</v>
@@ -1238,7 +1238,7 @@
         <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1253,7 +1253,7 @@
         <v>34</v>
       </c>
       <c r="AS5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6">
